--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/White-chinned Petrel_Antipodes Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/White-chinned Petrel_Antipodes Islands.xlsx
@@ -4243,13 +4243,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76174584-EEDD-4C60-B025-ECD681939558}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07A8D35B-449C-45B9-8182-FD571BB5F137}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8D613C2-8287-47CF-A58C-7670ED16DAB0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9731A8B-C9A6-436C-9C0F-2F2BA3237063}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F42E38E-97BA-4C91-AEAF-44A872CCBDDA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{348797C6-30EA-46E9-87BA-52D8677FF4AD}"/>
 </file>